--- a/data/trans_camb/P2A_fisi_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P2A_fisi_R-Edad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>1.507672919802833</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2.925991497027469</v>
+        <v>2.92599149702747</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.8097853134787829</v>
@@ -664,7 +664,7 @@
         <v>0.1883355322571185</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>3.165665038460613</v>
+        <v>3.165665038460612</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.6799893646272043</v>
+        <v>-0.8054911528611218</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.4314886614469581</v>
+        <v>-0.4032684265834525</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3597512789979379</v>
+        <v>0.2221193733311781</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.458947707628332</v>
+        <v>-1.636860359791227</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.267232362196665</v>
+        <v>-3.340483785461891</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.117291700818562</v>
+        <v>0.2482559916279782</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.5683812594428751</v>
+        <v>-0.7343276484729927</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.226662805956619</v>
+        <v>-1.140172863971978</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.9549588791409241</v>
+        <v>1.035320742781242</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.063075898135998</v>
+        <v>2.897074350132449</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.542515097101912</v>
+        <v>3.772194291392668</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.136420086013485</v>
+        <v>6.904013924187552</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.26152459394326</v>
+        <v>3.253823378642158</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.213174208384367</v>
+        <v>0.9556496848256133</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>7.908232518096579</v>
+        <v>7.561267885363186</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.500198246620837</v>
+        <v>2.385021120970559</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.715793738277104</v>
+        <v>1.851478937958297</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>6.174407772189178</v>
+        <v>6.034477272964947</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>0.07744229868633921</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1.301700080230624</v>
+        <v>1.301700080230623</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3313822804085349</v>
+        <v>-0.4959266113487678</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.306114365448993</v>
+        <v>-0.303415929514762</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.01413891915362036</v>
+        <v>-0.002645438992543245</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.3610965414423651</v>
+        <v>-0.3978888476733207</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.7534863973595027</v>
+        <v>-0.7763958296958466</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.05101370646106116</v>
+        <v>-0.1022747593751899</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1992874781265872</v>
+        <v>-0.2713831799602941</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4147963230595357</v>
+        <v>-0.3869097860458269</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.2529015717981495</v>
+        <v>0.3058331680321277</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>3.951578597717176</v>
+        <v>3.15107373636616</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>4.251733306459728</v>
+        <v>4.351495639594983</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>7.703478683681724</v>
+        <v>7.832069995478696</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.32622728081047</v>
+        <v>1.422537361723357</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.6304335158053033</v>
+        <v>0.4399072426864173</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>3.612338377358381</v>
+        <v>2.964264754425008</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.408219151467424</v>
+        <v>1.353409373521859</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.091531955177959</v>
+        <v>1.063261704948607</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>3.269053721859548</v>
+        <v>3.377502642621375</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>-0.2117487348056772</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>1.47647056030164</v>
+        <v>1.476470560301639</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>2.141097779603828</v>
@@ -878,7 +878,7 @@
         <v>0.3113739625318759</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>3.809663834001377</v>
+        <v>3.809663834001378</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8766882049634064</v>
+        <v>0.8280963240803072</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.9921751237787882</v>
+        <v>-0.9910536255005561</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.027915732956851</v>
+        <v>3.08489649842907</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.4651675204183173</v>
+        <v>-0.3889987800171328</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.857684118487378</v>
+        <v>-1.834551496700079</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.6151515870698943</v>
+        <v>-0.8580118467587814</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.6468577498634476</v>
+        <v>0.724986440424527</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.8769138558565879</v>
+        <v>-0.8376410066570954</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>1.975556398903462</v>
+        <v>1.860742275063</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.798132921146419</v>
+        <v>4.869906784608195</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.603934865513959</v>
+        <v>2.609754745945897</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10.6320394938057</v>
+        <v>10.6097944629512</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.794512088924588</v>
+        <v>3.680200641891865</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.43021023834038</v>
+        <v>1.738394793163531</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.764883534110521</v>
+        <v>3.58975154965959</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.564417188540238</v>
+        <v>3.562338730672806</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.585399916849885</v>
+        <v>1.616581287220895</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>6.320268477746814</v>
+        <v>6.190386502059692</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>-0.08469884452936796</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5905836960676119</v>
+        <v>0.5905836960676115</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.9031105917612201</v>
@@ -983,7 +983,7 @@
         <v>0.1313368900009931</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>1.606908284297466</v>
+        <v>1.606908284297467</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.2454741561173517</v>
+        <v>0.2080426617302962</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3371558056634962</v>
+        <v>-0.3659348156644824</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1.015032169866823</v>
+        <v>0.9424950073286741</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1963741449505572</v>
+        <v>-0.1480501179100401</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5539221788342288</v>
+        <v>-0.5758894307283973</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2235901989474656</v>
+        <v>-0.2660729173411109</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2041261160840571</v>
+        <v>0.2061249071570976</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3185276119219414</v>
+        <v>-0.2960258924374514</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.6106445884937841</v>
+        <v>0.6261749633555312</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>3.213686836595241</v>
+        <v>3.154076552594578</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.799366750376575</v>
+        <v>1.741867491870364</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>6.26710626625041</v>
+        <v>6.148768209213534</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>2.299109469523298</v>
+        <v>2.264969845231669</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.9621281902860387</v>
+        <v>1.128560920130417</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.248760863004164</v>
+        <v>2.104747257763588</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.948518571221438</v>
+        <v>1.83214868187325</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.860981175006299</v>
+        <v>0.8999612570810358</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>3.228908044547525</v>
+        <v>3.288267082589154</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-0.5957236992854532</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-0.6820528792782012</v>
+        <v>-0.682052879278202</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>2.718442550890372</v>
@@ -1083,7 +1083,7 @@
         <v>-0.8048021093985107</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>1.247965363462955</v>
+        <v>1.247965363462956</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>1.960275101196374</v>
@@ -1092,7 +1092,7 @@
         <v>-0.7101949491625869</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.2760770840843862</v>
+        <v>0.2760770840843856</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.436034693512613</v>
+        <v>-1.193161904543888</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.046999692999103</v>
+        <v>-3.043066069102363</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.182875318740957</v>
+        <v>-3.246959792069094</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3165821643946735</v>
+        <v>0.2250691436064033</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.957660052454258</v>
+        <v>-2.834463526752745</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.06017928327481</v>
+        <v>-1.147052379219457</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2143363617137948</v>
+        <v>0.1890882880256554</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.248349435799716</v>
+        <v>-2.255175746762885</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.326697484249409</v>
+        <v>-1.358345010390065</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.771879559842299</v>
+        <v>3.641910281062713</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.439811301139826</v>
+        <v>1.640174386542797</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.544234188770477</v>
+        <v>1.595840236780312</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.370878243974891</v>
+        <v>5.329203325446772</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.444917537379795</v>
+        <v>1.402199700357081</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.71558739708275</v>
+        <v>3.483577285813871</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>4.031739424925428</v>
+        <v>3.941933074282517</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.9008944231772124</v>
+        <v>0.9000924399124063</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.779978074871067</v>
+        <v>1.933823522882501</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.1421596788142021</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.1627607200599724</v>
+        <v>-0.1627607200599726</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.5824979127447718</v>
@@ -1188,7 +1188,7 @@
         <v>-0.1724500481879513</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2674094470588859</v>
+        <v>0.2674094470588863</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.4417167389834841</v>
@@ -1197,7 +1197,7 @@
         <v>-0.1600311082843332</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.06220956906272918</v>
+        <v>0.06220956906272902</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2594078911698262</v>
+        <v>-0.2229169489872476</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.5412931629968306</v>
+        <v>-0.5504736632790874</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.5560670411762636</v>
+        <v>-0.5790134513840043</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.01825783231481347</v>
+        <v>0.03368789047290424</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4939960982943349</v>
+        <v>-0.4990628484448767</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1887356709755618</v>
+        <v>-0.210590073920861</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0387897809273128</v>
+        <v>0.03560806753548556</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4228547231593219</v>
+        <v>-0.4240008088296638</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.2620124625920459</v>
+        <v>-0.2581367487063653</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.27928293190175</v>
+        <v>1.252388548287254</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.4891854580448025</v>
+        <v>0.6823707135574061</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.5478967581560008</v>
+        <v>0.5489322745328072</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.526488534710122</v>
+        <v>1.558832589088269</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4328761551959082</v>
+        <v>0.4359053248712559</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.132252559551299</v>
+        <v>0.97046077334563</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.216099472884541</v>
+        <v>1.113252019009457</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2568884969349989</v>
+        <v>0.2619766885618899</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.5290037253832853</v>
+        <v>0.541946692538492</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>1.891357597134951</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4.801032554195716</v>
+        <v>4.801032554195714</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>1.41766148486779</v>
@@ -1306,7 +1306,7 @@
         <v>0.1826064696518068</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>2.872761253931699</v>
+        <v>2.872761253931701</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.772499349838681</v>
+        <v>-1.755295643635342</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.8650909837001727</v>
+        <v>-1.089146030856741</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.677912840741262</v>
+        <v>1.74862141994028</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.122147270715167</v>
+        <v>-2.413554677371813</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-4.811237612260352</v>
+        <v>-4.912525986305234</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-2.110292492108938</v>
+        <v>-2.039638181068571</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.016085800398956</v>
+        <v>-1.087492123900269</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-2.052467401453809</v>
+        <v>-1.988804370079211</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.7662428448620413</v>
+        <v>0.6557869981998905</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.82953907622062</v>
+        <v>3.635898288372925</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.000515812457153</v>
+        <v>4.80424718606081</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.947904542432998</v>
+        <v>7.709135652370744</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.016990835072514</v>
+        <v>4.904442394469235</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.225139112051108</v>
+        <v>1.672235959448987</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.938814070918024</v>
+        <v>3.944290497253714</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.692688648463486</v>
+        <v>3.510976000889646</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.415797186270345</v>
+        <v>2.302825902862722</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>5.018622205962853</v>
+        <v>5.00127360510559</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.3540466597619581</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.898713993480807</v>
+        <v>0.8987139934808066</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.1688404280227819</v>
@@ -1411,7 +1411,7 @@
         <v>0.02660306915097223</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.4185189409679962</v>
+        <v>0.4185189409679964</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2588926154308885</v>
+        <v>-0.2906372331492756</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1273580853767923</v>
+        <v>-0.1807417868246282</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.1981598090943782</v>
+        <v>0.2276505782116587</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2216260481525346</v>
+        <v>-0.2527389954867045</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4768619584678989</v>
+        <v>-0.4747758883591631</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1926161662629547</v>
+        <v>-0.2062680337495902</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1276955754413655</v>
+        <v>-0.1376565471996275</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2538202420606107</v>
+        <v>-0.2478425197845004</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.0826230034270006</v>
+        <v>0.07453049316297866</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.012191659766372</v>
+        <v>0.9150520058817514</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.329335552465341</v>
+        <v>1.209287941320818</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.101500917406841</v>
+        <v>1.97207284255012</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.749352756272083</v>
+        <v>0.7331387647918154</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2120266285766507</v>
+        <v>0.2582303780969925</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6107597239792399</v>
+        <v>0.6349794301725703</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6831461935753925</v>
+        <v>0.6044077401031908</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.4381961837581195</v>
+        <v>0.4011237533050971</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.9084190759413803</v>
+        <v>0.9059166206037298</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-0.2974440657417324</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>6.55902161341466</v>
+        <v>6.559021613414663</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>3.566382527553277</v>
@@ -1511,7 +1511,7 @@
         <v>5.051508351183228</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>3.078005034125665</v>
+        <v>3.078005034125666</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>2.722807052238334</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.231164835984631</v>
+        <v>-1.988875872267009</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-4.070488644757392</v>
+        <v>-4.192969115034876</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2.500392361217506</v>
+        <v>2.226711750049885</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.071548072693474</v>
+        <v>-0.7857510914623216</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.5709490435586078</v>
+        <v>0.8703230003887237</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.5803784703052632</v>
+        <v>-0.8664752273446277</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.1641779817305373</v>
+        <v>-0.002666842744578569</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.4908946783666551</v>
+        <v>-0.7024229352870972</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>2.044388859448018</v>
+        <v>2.235383720002235</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>5.958910620769715</v>
+        <v>6.104600839148478</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.626008864641575</v>
+        <v>3.730913541395827</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>10.76458358717036</v>
+        <v>10.47378111273139</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>7.574797456426053</v>
+        <v>7.544623743362163</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>9.296181139858673</v>
+        <v>9.60259994477113</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>6.056736507439</v>
+        <v>6.072660617246325</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>5.926360742526426</v>
+        <v>5.693651849655307</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>5.522219075133767</v>
+        <v>5.285308283084754</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>7.592575253111914</v>
+        <v>7.621776514727744</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.03270867807578353</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.7212681345996885</v>
+        <v>0.7212681345996889</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.4477076773922001</v>
@@ -1616,7 +1616,7 @@
         <v>0.6341437167109271</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3863989558560652</v>
+        <v>0.3863989558560654</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.3196727343843197</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.2159313663816509</v>
+        <v>-0.1933221740496401</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.3713248307337848</v>
+        <v>-0.3803278446951252</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.1837621657804705</v>
+        <v>0.164162531641421</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.114002540986433</v>
+        <v>-0.05699232376971277</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.04504929540454373</v>
+        <v>0.07864300180801315</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.05651818118504921</v>
+        <v>-0.07670402468610237</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.02044394087936463</v>
+        <v>-0.007062434929054396</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.05897353257186375</v>
+        <v>-0.06810278454214141</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.1966787953840306</v>
+        <v>0.223604088355337</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.8581725841690628</v>
+        <v>0.8838119773539</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.526183042806833</v>
+        <v>0.5208667182544383</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.577101637922212</v>
+        <v>1.465048429252349</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.264165173465069</v>
+        <v>1.293104064151406</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.578609828954003</v>
+        <v>1.62492883127149</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.025431692425252</v>
+        <v>1.048027239498177</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.8510768615076166</v>
+        <v>0.7868152895395684</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.818266049793333</v>
+        <v>0.7313119287973598</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.075079167798854</v>
+        <v>1.149178601760115</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>-0.8628596897979512</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>4.850151031742376</v>
+        <v>4.85015103174238</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>2.538379026424041</v>
@@ -1725,7 +1725,7 @@
         <v>-0.4459872934295728</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>5.707635169481843</v>
+        <v>5.70763516948184</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>3.724251772873857</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-0.02937707568662188</v>
+        <v>0.167772853740717</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-5.591550383386749</v>
+        <v>-5.132109739048066</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>0.3820122869017781</v>
+        <v>0.7165088350710522</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-2.163646267036162</v>
+        <v>-2.026696435930656</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-4.682623142201544</v>
+        <v>-4.775412389615703</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>1.683427426809491</v>
+        <v>1.595869302853013</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>0.3834988073484337</v>
+        <v>0.42095958750783</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-3.623278926058371</v>
+        <v>-3.536427303372623</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>2.479134970755144</v>
+        <v>2.12318607037005</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>10.42755263858369</v>
+        <v>10.88155978396111</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>2.757406822609328</v>
+        <v>3.624702367285658</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>9.06824201357486</v>
+        <v>9.011798337252086</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>6.897442334845034</v>
+        <v>7.315305844776901</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>3.963406441924986</v>
+        <v>3.131040117433629</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>9.137928081817543</v>
+        <v>9.444794736014174</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>7.223434475162992</v>
+        <v>7.159355176375033</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>2.323880443914077</v>
+        <v>2.693543792935991</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>8.136738833075311</v>
+        <v>8.043277758590502</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>-0.100737486560257</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0.5662473634499878</v>
+        <v>0.5662473634499882</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0.2848250825722559</v>
@@ -1830,7 +1830,7 @@
         <v>-0.05004310481410142</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.640439288820536</v>
+        <v>0.6404392888205357</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.4255083150182548</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.0364612390176246</v>
+        <v>-0.009771549621580918</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.5113411159503362</v>
+        <v>-0.4677298609449796</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.01775626003454313</v>
+        <v>0.02600960246286296</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.2053268634437039</v>
+        <v>-0.1938449324191747</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.4287106024732241</v>
+        <v>-0.4395881729235008</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.134093344199818</v>
+        <v>0.1294978231404956</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.03717681147218441</v>
+        <v>0.03270417217934122</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.3425320611217542</v>
+        <v>-0.3457849698256373</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.2279372064480684</v>
+        <v>0.2040624183299929</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.576024545590606</v>
+        <v>1.701832178024757</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.4432505442171634</v>
+        <v>0.584438036547032</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1.452925447310669</v>
+        <v>1.453242310113475</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.9573467737248761</v>
+        <v>1.013294472959274</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.5738262583048416</v>
+        <v>0.4800980287793908</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1.318485864232633</v>
+        <v>1.342850189382256</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1.027197014327246</v>
+        <v>0.9510396709428592</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.3257844264437571</v>
+        <v>0.3672656383880741</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1.118679044431302</v>
+        <v>1.136102916672819</v>
       </c>
     </row>
     <row r="40">
@@ -1939,7 +1939,7 @@
         <v>1.569839480681384</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>18.73024178297141</v>
+        <v>18.7302417829714</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>5.747060482176961</v>
@@ -1948,7 +1948,7 @@
         <v>-0.734138086634041</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>17.11882525387751</v>
+        <v>17.1188252538775</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-2.445291990371448</v>
+        <v>-2.264044225373536</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-9.698201908834575</v>
+        <v>-9.051447711307098</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>8.775326202293787</v>
+        <v>8.869193286015575</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1.347396345080704</v>
+        <v>0.9117923951929834</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-4.201798753319194</v>
+        <v>-4.239454000981048</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>13.466981210638</v>
+        <v>13.8977029580583</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>1.670364395932773</v>
+        <v>1.518961815380752</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-4.687133383146564</v>
+        <v>-4.600727971960975</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>13.25586631474325</v>
+        <v>13.14976935356719</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>10.92090729252498</v>
+        <v>10.51367494115127</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>0.4771286926510368</v>
+        <v>0.8734373784342294</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>20.6312013583308</v>
+        <v>20.15280469339224</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>12.86413674611949</v>
+        <v>12.70169419411198</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>7.06878120826226</v>
+        <v>6.847648487224485</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>23.6296721957741</v>
+        <v>23.56241206793825</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>10.01711590181593</v>
+        <v>10.22972902978662</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>3.147323895385746</v>
+        <v>3.258290867811904</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>20.68092000039873</v>
+        <v>20.72381324638636</v>
       </c>
     </row>
     <row r="43">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.1770853368886411</v>
+        <v>-0.1631697253348608</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.6360805892734416</v>
+        <v>-0.6413764752425561</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.5387236737221325</v>
+        <v>0.5738020700671265</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.0812815538806248</v>
+        <v>0.0485506016612168</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.265554783498424</v>
+        <v>-0.2789595172740101</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.8393713239212626</v>
+        <v>0.881851366924386</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1190362059693231</v>
+        <v>0.09914264757606948</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.3233901746215815</v>
+        <v>-0.3213784934900946</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.8795261085567495</v>
+        <v>0.8597359517834916</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>1.202285820435268</v>
+        <v>1.218995474358994</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.1237121856283906</v>
+        <v>0.1184871278722984</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>2.456843848770801</v>
+        <v>2.311508463211876</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>1.308137907307557</v>
+        <v>1.281813030883517</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.7610107053205432</v>
+        <v>0.6778214095807037</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>2.497958172442192</v>
+        <v>2.563653458084488</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.9941168010640515</v>
+        <v>0.9721578101665531</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.303228709919359</v>
+        <v>0.30975970351381</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>2.080486548927904</v>
+        <v>2.078865556124039</v>
       </c>
     </row>
     <row r="46">
@@ -2144,7 +2144,7 @@
         <v>0.5597803331040416</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>5.867103302012763</v>
+        <v>5.867103302012761</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>2.827519567254083</v>
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>1.17125418167643</v>
+        <v>1.144271555085198</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-0.4773013326679644</v>
+        <v>-0.5621774637988731</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>4.521187330846643</v>
+        <v>4.349708458113198</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>1.540705512251621</v>
+        <v>1.414391370136644</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-0.5240034444932586</v>
+        <v>-0.5450328450615542</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>3.93930472815009</v>
+        <v>3.974172009989009</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>1.73879676941884</v>
+        <v>1.608829869791835</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-0.3099793602398183</v>
+        <v>-0.2454327745967296</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>4.618917517361563</v>
+        <v>4.598219983769814</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>3.637309368051356</v>
+        <v>3.533935870864929</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>1.762666156099579</v>
+        <v>1.693243154369232</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>7.175950764117717</v>
+        <v>7.08872912709817</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>4.101526878409687</v>
+        <v>4.07419498560643</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>1.92734347019042</v>
+        <v>1.818131007438158</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>6.327140419868917</v>
+        <v>6.518936581249374</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>3.469446576674637</v>
+        <v>3.432618832876667</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>1.380922396480395</v>
+        <v>1.3920676380468</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>6.420405404161706</v>
+        <v>6.38637466693604</v>
       </c>
     </row>
     <row r="49">
@@ -2249,7 +2249,7 @@
         <v>0.1121041844760959</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>1.174973095717717</v>
+        <v>1.174973095717716</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>0.4516983031641092</v>
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.2206485615623022</v>
+        <v>0.2002167754615257</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.08807982264830738</v>
+        <v>-0.1062529298502686</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.8255202480162318</v>
+        <v>0.7826777460789157</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.2285596707525772</v>
+        <v>0.2029591176411741</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.07854766627703191</v>
+        <v>-0.08056593172601498</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.5634950769046557</v>
+        <v>0.5672029737655158</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.2932100495026525</v>
+        <v>0.2625149330235474</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.05101380205654728</v>
+        <v>-0.04326472246422249</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.7595506888896018</v>
+        <v>0.7663737052363215</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.8166675613513702</v>
+        <v>0.7808018642690328</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.3949324161444021</v>
+        <v>0.3762865782160209</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>1.63744614734898</v>
+        <v>1.58802236910701</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.7186528504884804</v>
+        <v>0.7124496840411705</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.339884613503637</v>
+        <v>0.323468274413046</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>1.110941858561317</v>
+        <v>1.158031847557546</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.6623164833727858</v>
+        <v>0.6544930324924161</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.2623696695180111</v>
+        <v>0.2646238601302848</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>1.22669363641158</v>
+        <v>1.230291417184252</v>
       </c>
     </row>
     <row r="52">
